--- a/Plays.xlsx
+++ b/Plays.xlsx
@@ -1200,217 +1200,217 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42100101</v>
+        <v>42100217</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44668</v>
+        <v>44696</v>
       </c>
       <c r="C2" t="s">
         <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="H2" t="n">
-        <v>221</v>
+        <v>204.5</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.391</v>
+        <v>-2.128</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.391</v>
+        <v>-2.128</v>
       </c>
       <c r="K2" t="n">
-        <v>0.391</v>
+        <v>0.43</v>
       </c>
       <c r="L2" t="n">
-        <v>217.751</v>
+        <v>216.196</v>
       </c>
       <c r="M2" t="n">
-        <v>-5.001</v>
+        <v>-3.953</v>
       </c>
       <c r="N2" t="n">
-        <v>-5.001</v>
+        <v>-3.953</v>
       </c>
       <c r="O2" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="P2" t="n">
+        <v>225.227</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-6.706</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="T2" t="n">
+        <v>225.963</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-6.929</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="X2" t="n">
+        <v>223.269</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-3.567</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>225.304</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>-2.525</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>-3.607</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>225.806</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-4.301</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-4.235</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>223.628</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>11.696</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-11.696</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>20.727</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-20.727</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-1.706</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>21.463</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-21.463</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-1.929</v>
+      </c>
+      <c r="BA2" t="n">
         <v>0.3</v>
       </c>
-      <c r="P2" t="n">
-        <v>231.494</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-5.627</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-6.683</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="T2" t="n">
-        <v>228.027</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-8.839</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-6.609</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="X2" t="n">
-        <v>224.661</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-5.227</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-5.658</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>232.298</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>-4.767</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>-3.785</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>0.284</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>232.008</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>-5.475</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>-5.188</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>227.707</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>3.609</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>3.609</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-3.249</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>3.249</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>10.494</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-10.494</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1.373</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>7.02699999999999</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>-7.02699999999999</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>-1.839</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.391</v>
-      </c>
       <c r="BB2" t="n">
-        <v>0.034</v>
+        <v>-0.122</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.661</v>
+        <v>18.769</v>
       </c>
       <c r="BD2" t="n">
-        <v>-3.661</v>
+        <v>-18.769</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.773</v>
+        <v>1.433</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.342</v>
+        <v>0.63</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.00600000000000001</v>
+        <v>-0.012</v>
       </c>
       <c r="BH2" t="n">
-        <v>11.298</v>
+        <v>20.804</v>
       </c>
       <c r="BI2" t="n">
-        <v>-11.298</v>
+        <v>-20.804</v>
       </c>
       <c r="BJ2" s="1" t="n">
-        <v>2.233</v>
+        <v>2.475</v>
       </c>
       <c r="BK2" s="1" t="n">
-        <v>3.215</v>
+        <v>1.393</v>
       </c>
       <c r="BL2" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.038</v>
       </c>
       <c r="BM2" s="1" t="n">
-        <v>11.008</v>
+        <v>21.306</v>
       </c>
       <c r="BN2" s="1" t="n">
-        <v>-11.008</v>
+        <v>-21.306</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.525</v>
+        <v>0.699</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.812</v>
+        <v>0.765</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.034</v>
+        <v>-0.02</v>
       </c>
       <c r="BR2" t="n">
-        <v>6.70699999999999</v>
+        <v>19.128</v>
       </c>
       <c r="BS2" t="n">
-        <v>-6.70699999999999</v>
+        <v>-19.128</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
         <v>1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
@@ -1430,217 +1430,217 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42100101</v>
+        <v>42100217</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44668</v>
+        <v>44696</v>
       </c>
       <c r="C3" t="s">
         <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F3" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="G3" t="n">
-        <v>-300</v>
+        <v>-210</v>
       </c>
       <c r="H3" t="n">
-        <v>221</v>
+        <v>204.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.391</v>
+        <v>2.128</v>
       </c>
       <c r="J3" t="n">
-        <v>3.391</v>
+        <v>2.128</v>
       </c>
       <c r="K3" t="n">
-        <v>0.609</v>
+        <v>0.57</v>
       </c>
       <c r="L3" t="n">
-        <v>217.751</v>
+        <v>216.196</v>
       </c>
       <c r="M3" t="n">
-        <v>5.001</v>
+        <v>3.953</v>
       </c>
       <c r="N3" t="n">
-        <v>5.001</v>
+        <v>3.953</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7</v>
+        <v>0.651</v>
       </c>
       <c r="P3" t="n">
-        <v>231.494</v>
+        <v>225.227</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.627</v>
+        <v>6.706</v>
       </c>
       <c r="R3" t="n">
-        <v>6.683</v>
+        <v>6.65</v>
       </c>
       <c r="S3" t="n">
-        <v>0.667</v>
+        <v>0.635</v>
       </c>
       <c r="T3" t="n">
-        <v>228.027</v>
+        <v>225.963</v>
       </c>
       <c r="U3" t="n">
-        <v>8.839</v>
+        <v>6.929</v>
       </c>
       <c r="V3" t="n">
-        <v>6.609</v>
+        <v>4.7</v>
       </c>
       <c r="W3" t="n">
-        <v>0.68</v>
+        <v>0.758</v>
       </c>
       <c r="X3" t="n">
-        <v>224.661</v>
+        <v>223.269</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.227</v>
+        <v>3.567</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.658</v>
+        <v>4.37</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.708</v>
+        <v>0.648</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.298</v>
+        <v>225.304</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>4.767</v>
+        <v>2.525</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>3.785</v>
+        <v>3.607</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>0.716</v>
+        <v>0.674</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>232.008</v>
+        <v>225.806</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.475</v>
+        <v>4.301</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.188</v>
+        <v>4.235</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.68</v>
+        <v>0.656</v>
       </c>
       <c r="AJ3" t="n">
-        <v>227.707</v>
+        <v>223.628</v>
       </c>
       <c r="AK3" t="n">
-        <v>-3.609</v>
+        <v>-2.872</v>
       </c>
       <c r="AL3" t="n">
-        <v>-3.609</v>
+        <v>-2.872</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.141</v>
+        <v>-0.107</v>
       </c>
       <c r="AN3" t="n">
-        <v>-3.249</v>
+        <v>11.696</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.249</v>
+        <v>-11.696</v>
       </c>
       <c r="AP3" t="n">
-        <v>-1.999</v>
+        <v>-1.047</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-1.999</v>
+        <v>-1.047</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.05</v>
+        <v>-0.026</v>
       </c>
       <c r="AS3" t="n">
-        <v>10.494</v>
+        <v>20.727</v>
       </c>
       <c r="AT3" t="n">
-        <v>-10.494</v>
+        <v>-20.727</v>
       </c>
       <c r="AU3" t="n">
-        <v>-1.373</v>
+        <v>1.706</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.317</v>
+        <v>1.65</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.083</v>
+        <v>-0.042</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.02699999999999</v>
+        <v>21.463</v>
       </c>
       <c r="AY3" t="n">
-        <v>-7.02699999999999</v>
+        <v>-21.463</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.839</v>
+        <v>1.929</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.391</v>
+        <v>-0.3</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.07</v>
+        <v>0.081</v>
       </c>
       <c r="BC3" t="n">
-        <v>3.661</v>
+        <v>18.769</v>
       </c>
       <c r="BD3" t="n">
-        <v>-3.661</v>
+        <v>-18.769</v>
       </c>
       <c r="BE3" t="n">
-        <v>-1.773</v>
+        <v>-1.433</v>
       </c>
       <c r="BF3" t="n">
-        <v>-1.342</v>
+        <v>-0.63</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.042</v>
+        <v>-0.029</v>
       </c>
       <c r="BH3" t="n">
-        <v>11.298</v>
+        <v>20.804</v>
       </c>
       <c r="BI3" t="n">
-        <v>-11.298</v>
+        <v>-20.804</v>
       </c>
       <c r="BJ3" s="1" t="n">
-        <v>-2.233</v>
+        <v>-2.475</v>
       </c>
       <c r="BK3" s="1" t="n">
-        <v>-3.215</v>
+        <v>-1.393</v>
       </c>
       <c r="BL3" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.003</v>
       </c>
       <c r="BM3" s="1" t="n">
-        <v>11.008</v>
+        <v>21.306</v>
       </c>
       <c r="BN3" s="1" t="n">
-        <v>-11.008</v>
+        <v>-21.306</v>
       </c>
       <c r="BO3" t="n">
-        <v>-1.525</v>
+        <v>-0.699</v>
       </c>
       <c r="BP3" t="n">
-        <v>-1.812</v>
+        <v>-0.765</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.07</v>
+        <v>-0.021</v>
       </c>
       <c r="BR3" t="n">
-        <v>6.70699999999999</v>
+        <v>19.128</v>
       </c>
       <c r="BS3" t="n">
-        <v>-6.70699999999999</v>
+        <v>-19.128</v>
       </c>
       <c r="BT3" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1660,217 +1660,217 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42100111</v>
+        <v>42100227</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44668</v>
+        <v>44696</v>
       </c>
       <c r="C4" t="s">
         <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="G4" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="H4" t="n">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.359</v>
+        <v>-5.735</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.359</v>
+        <v>-5.735</v>
       </c>
       <c r="K4" t="n">
-        <v>0.456</v>
+        <v>0.321</v>
       </c>
       <c r="L4" t="n">
-        <v>220.642</v>
+        <v>217.68</v>
       </c>
       <c r="M4" t="n">
-        <v>-4.015</v>
+        <v>-6.763</v>
       </c>
       <c r="N4" t="n">
-        <v>-4.015</v>
+        <v>-6.763</v>
       </c>
       <c r="O4" t="n">
-        <v>0.362</v>
+        <v>0.263</v>
       </c>
       <c r="P4" t="n">
-        <v>226.473</v>
+        <v>230.954</v>
       </c>
       <c r="Q4" t="n">
-        <v>-6</v>
+        <v>-6.02</v>
       </c>
       <c r="R4" t="n">
-        <v>-5.778</v>
+        <v>-6.605</v>
       </c>
       <c r="S4" t="n">
-        <v>0.333</v>
+        <v>0.27</v>
       </c>
       <c r="T4" t="n">
-        <v>225.996</v>
+        <v>222.137</v>
       </c>
       <c r="U4" t="n">
-        <v>-3.452</v>
+        <v>-9.357</v>
       </c>
       <c r="V4" t="n">
-        <v>-2.807</v>
+        <v>-8.786</v>
       </c>
       <c r="W4" t="n">
-        <v>0.352</v>
+        <v>0.216</v>
       </c>
       <c r="X4" t="n">
-        <v>231.617</v>
+        <v>220.809</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.194</v>
+        <v>-7.355</v>
       </c>
       <c r="Z4" t="n">
-        <v>-3.906</v>
+        <v>-8.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.361</v>
+        <v>0.245</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.337</v>
+        <v>229.336</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>-3.551</v>
+        <v>-7.224</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>-3.517</v>
+        <v>-7.721</v>
       </c>
       <c r="AE4" s="1" t="n">
-        <v>0.347</v>
+        <v>0.236</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>228.792</v>
+        <v>229.392</v>
       </c>
       <c r="AG4" t="n">
-        <v>-3.595</v>
+        <v>-7.076</v>
       </c>
       <c r="AH4" t="n">
-        <v>-3.564</v>
+        <v>-7.302</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.368</v>
+        <v>0.258</v>
       </c>
       <c r="AJ4" t="n">
-        <v>226.976</v>
+        <v>225.051</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.641</v>
+        <v>0.765</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.641</v>
+        <v>0.765</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.039</v>
+        <v>0.004</v>
       </c>
       <c r="AN4" t="n">
-        <v>-5.358</v>
+        <v>12.68</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.358</v>
+        <v>-12.68</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.0149999999999997</v>
+        <v>-0.263</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.0149999999999997</v>
+        <v>-0.263</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.055</v>
+        <v>-0.054</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.473000000000013</v>
+        <v>25.954</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.473000000000013</v>
+        <v>-25.954</v>
       </c>
       <c r="AU4" t="n">
-        <v>-2</v>
+        <v>0.48</v>
       </c>
       <c r="AV4" t="n">
-        <v>-1.778</v>
+        <v>-0.105</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.084</v>
+        <v>-0.047</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.00399999999999068</v>
+        <v>17.137</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.00399999999999068</v>
+        <v>-17.137</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.548</v>
+        <v>-2.857</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.193</v>
+        <v>-2.286</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.065</v>
+        <v>-0.101</v>
       </c>
       <c r="BC4" t="n">
-        <v>5.61699999999999</v>
+        <v>15.809</v>
       </c>
       <c r="BD4" t="n">
-        <v>-5.61699999999999</v>
+        <v>-15.809</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.806</v>
+        <v>-0.855</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0939999999999999</v>
+        <v>-1.7</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.056</v>
+        <v>-0.072</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.33699999999999</v>
+        <v>24.336</v>
       </c>
       <c r="BI4" t="n">
-        <v>-2.33699999999999</v>
+        <v>-24.336</v>
       </c>
       <c r="BJ4" s="1" t="n">
-        <v>0.449</v>
+        <v>-0.724</v>
       </c>
       <c r="BK4" s="1" t="n">
-        <v>0.483</v>
+        <v>-1.221</v>
       </c>
       <c r="BL4" s="1" t="n">
-        <v>-0.07</v>
+        <v>-0.081</v>
       </c>
       <c r="BM4" s="1" t="n">
-        <v>2.792</v>
+        <v>24.392</v>
       </c>
       <c r="BN4" s="1" t="n">
-        <v>-2.792</v>
+        <v>-24.392</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.405</v>
+        <v>-0.576</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.436</v>
+        <v>-0.802</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.049</v>
+        <v>-0.059</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.975999999999999</v>
+        <v>20.051</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.975999999999999</v>
+        <v>-20.051</v>
       </c>
       <c r="BT4" t="n">
         <v>0</v>
@@ -1890,217 +1890,217 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>42100111</v>
+        <v>42100227</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44668</v>
+        <v>44696</v>
       </c>
       <c r="C5" t="s">
         <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F5" t="n">
-        <v>-4</v>
+        <v>-6.5</v>
       </c>
       <c r="G5" t="n">
-        <v>-165</v>
+        <v>-260</v>
       </c>
       <c r="H5" t="n">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="I5" t="n">
-        <v>1.359</v>
+        <v>5.735</v>
       </c>
       <c r="J5" t="n">
-        <v>1.359</v>
+        <v>5.735</v>
       </c>
       <c r="K5" t="n">
-        <v>0.544</v>
+        <v>0.679</v>
       </c>
       <c r="L5" t="n">
-        <v>220.642</v>
+        <v>217.68</v>
       </c>
       <c r="M5" t="n">
-        <v>4.015</v>
+        <v>6.763</v>
       </c>
       <c r="N5" t="n">
-        <v>4.015</v>
+        <v>6.763</v>
       </c>
       <c r="O5" t="n">
-        <v>0.638</v>
+        <v>0.737</v>
       </c>
       <c r="P5" t="n">
-        <v>226.473</v>
+        <v>230.954</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="R5" t="n">
-        <v>5.778</v>
+        <v>6.605</v>
       </c>
       <c r="S5" t="n">
-        <v>0.667</v>
+        <v>0.73</v>
       </c>
       <c r="T5" t="n">
-        <v>225.996</v>
+        <v>222.137</v>
       </c>
       <c r="U5" t="n">
-        <v>3.452</v>
+        <v>9.357</v>
       </c>
       <c r="V5" t="n">
-        <v>2.807</v>
+        <v>8.786</v>
       </c>
       <c r="W5" t="n">
-        <v>0.648</v>
+        <v>0.784</v>
       </c>
       <c r="X5" t="n">
-        <v>231.617</v>
+        <v>220.809</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.194</v>
+        <v>7.355</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.906</v>
+        <v>8.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.639</v>
+        <v>0.755</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.337</v>
+        <v>229.336</v>
       </c>
       <c r="AC5" s="1" t="n">
-        <v>3.551</v>
+        <v>7.224</v>
       </c>
       <c r="AD5" s="1" t="n">
-        <v>3.517</v>
+        <v>7.721</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>0.653</v>
+        <v>0.764</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>228.792</v>
+        <v>229.392</v>
       </c>
       <c r="AG5" t="n">
-        <v>3.595</v>
+        <v>7.076</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.564</v>
+        <v>7.302</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.632</v>
+        <v>0.742</v>
       </c>
       <c r="AJ5" t="n">
-        <v>226.976</v>
+        <v>225.051</v>
       </c>
       <c r="AK5" t="n">
-        <v>-2.641</v>
+        <v>-0.765</v>
       </c>
       <c r="AL5" t="n">
-        <v>-2.641</v>
+        <v>-0.765</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.079</v>
+        <v>-0.0429999999999999</v>
       </c>
       <c r="AN5" t="n">
-        <v>-5.358</v>
+        <v>12.68</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.358</v>
+        <v>-12.68</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0149999999999997</v>
+        <v>0.263</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0149999999999997</v>
+        <v>0.263</v>
       </c>
       <c r="AR5" t="n">
         <v>0.015</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.473000000000013</v>
+        <v>25.954</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.473000000000013</v>
+        <v>-25.954</v>
       </c>
       <c r="AU5" t="n">
-        <v>2</v>
+        <v>-0.48</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.778</v>
+        <v>0.105</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.044</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.00399999999999068</v>
+        <v>17.137</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.00399999999999068</v>
+        <v>-17.137</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.548</v>
+        <v>2.857</v>
       </c>
       <c r="BA5" t="n">
-        <v>-1.193</v>
+        <v>2.286</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.025</v>
+        <v>0.0620000000000001</v>
       </c>
       <c r="BC5" t="n">
-        <v>5.61699999999999</v>
+        <v>15.809</v>
       </c>
       <c r="BD5" t="n">
-        <v>-5.61699999999999</v>
+        <v>-15.809</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.806</v>
+        <v>0.855</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.0939999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.016</v>
+        <v>0.033</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.33699999999999</v>
+        <v>24.336</v>
       </c>
       <c r="BI5" t="n">
-        <v>-2.33699999999999</v>
+        <v>-24.336</v>
       </c>
       <c r="BJ5" s="1" t="n">
-        <v>-0.449</v>
+        <v>0.724</v>
       </c>
       <c r="BK5" s="1" t="n">
-        <v>-0.483</v>
+        <v>1.221</v>
       </c>
       <c r="BL5" s="1" t="n">
-        <v>0.03</v>
+        <v>0.042</v>
       </c>
       <c r="BM5" s="1" t="n">
-        <v>2.792</v>
+        <v>24.392</v>
       </c>
       <c r="BN5" s="1" t="n">
-        <v>-2.792</v>
+        <v>-24.392</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.405</v>
+        <v>0.576</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.436</v>
+        <v>0.802</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.00900000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.975999999999999</v>
+        <v>20.051</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0.975999999999999</v>
+        <v>-20.051</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
@@ -2119,924 +2119,52 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>42100121</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>44668</v>
-      </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>435</v>
-      </c>
-      <c r="H6" t="n">
-        <v>230</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-4.692</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-4.692</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="L6" t="n">
-        <v>231.186</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-7.691</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-7.691</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="P6" t="n">
-        <v>228.579</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-4.275</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-4.057</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="T6" t="n">
-        <v>232.62</v>
-      </c>
-      <c r="U6" t="n">
-        <v>-2.98</v>
-      </c>
-      <c r="V6" t="n">
-        <v>-3.985</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="X6" t="n">
-        <v>232.987</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>-5.419</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>-5.466</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>232.408</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>-5.521</v>
-      </c>
-      <c r="AD6" s="1" t="n">
-        <v>-5.102</v>
-      </c>
-      <c r="AE6" s="1" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="AF6" s="1" t="n">
-        <v>231.321</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>-5.096</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>-5.165</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>231.517</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>6.308</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>6.308</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1.18600000000001</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>-1.18600000000001</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>3.309</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>3.309</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>-1.42099999999999</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1.42099999999999</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.725</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>6.943</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>-2.62</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>7.015</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>2.98699999999999</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>-2.98699999999999</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>5.581</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>5.534</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>2.40799999999999</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>-2.40799999999999</v>
-      </c>
-      <c r="BJ6" s="1" t="n">
-        <v>5.479</v>
-      </c>
-      <c r="BK6" s="1" t="n">
-        <v>5.898</v>
-      </c>
-      <c r="BL6" s="1" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="BM6" s="1" t="n">
-        <v>1.321</v>
-      </c>
-      <c r="BN6" s="1" t="n">
-        <v>-1.321</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>5.835</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>1.517</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>-1.517</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>42100121</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>44668</v>
-      </c>
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-11</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-635</v>
-      </c>
-      <c r="H7" t="n">
-        <v>230</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.692</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.692</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.641</v>
-      </c>
-      <c r="L7" t="n">
-        <v>231.186</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7.691</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.691</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="P7" t="n">
-        <v>228.579</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4.275</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4.057</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.683</v>
-      </c>
-      <c r="T7" t="n">
-        <v>232.62</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="X7" t="n">
-        <v>232.987</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>5.419</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>5.466</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>232.408</v>
-      </c>
-      <c r="AC7" s="1" t="n">
-        <v>5.521</v>
-      </c>
-      <c r="AD7" s="1" t="n">
-        <v>5.102</v>
-      </c>
-      <c r="AE7" s="1" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="AF7" s="1" t="n">
-        <v>231.321</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>5.096</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>5.165</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>231.517</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>-6.308</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>-6.308</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>-0.223</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1.18600000000001</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>-1.18600000000001</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>-3.309</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>-3.309</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>-1.42099999999999</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>1.42099999999999</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>-6.725</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>-6.943</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>-0.181</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>-2.62</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>-8.02</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>-7.015</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>-0.084</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>2.98699999999999</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>-2.98699999999999</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>-5.581</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>-5.534</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>-0.169</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>2.40799999999999</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>-2.40799999999999</v>
-      </c>
-      <c r="BJ7" s="1" t="n">
-        <v>-5.479</v>
-      </c>
-      <c r="BK7" s="1" t="n">
-        <v>-5.898</v>
-      </c>
-      <c r="BL7" s="1" t="n">
-        <v>-0.136</v>
-      </c>
-      <c r="BM7" s="1" t="n">
-        <v>1.321</v>
-      </c>
-      <c r="BN7" s="1" t="n">
-        <v>-1.321</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>-5.904</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>-5.835</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>-0.157</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>1.517</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>-1.517</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>42100141</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>44668</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>420</v>
-      </c>
-      <c r="H8" t="n">
-        <v>223.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-5.941</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-5.941</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="L8" t="n">
-        <v>218.917</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-6.666</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-6.666</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="P8" t="n">
-        <v>225.541</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-4.196</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-5.335</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="T8" t="n">
-        <v>223.116</v>
-      </c>
-      <c r="U8" t="n">
-        <v>-4.814</v>
-      </c>
-      <c r="V8" t="n">
-        <v>-4.209</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>224.231</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>-7.328</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>-7.962</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.241</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>226.062</v>
-      </c>
-      <c r="AC8" s="1" t="n">
-        <v>-6.869</v>
-      </c>
-      <c r="AD8" s="1" t="n">
-        <v>-7.912</v>
-      </c>
-      <c r="AE8" s="1" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="AF8" s="1" t="n">
-        <v>226.535</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>-5.969</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>-6.338</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0.298</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>224.067</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>4.559</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>4.559</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>-4.583</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>4.583</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>3.834</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>3.834</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0.071</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>2.041</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>-2.041</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.304</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>5.165</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>-0.383999999999986</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0.383999999999986</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>5.686</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>6.291</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0.730999999999995</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>-0.730999999999995</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>3.172</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>2.538</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>2.56200000000001</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>-2.56200000000001</v>
-      </c>
-      <c r="BJ8" s="1" t="n">
-        <v>3.631</v>
-      </c>
-      <c r="BK8" s="1" t="n">
-        <v>2.588</v>
-      </c>
-      <c r="BL8" s="1" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="BM8" s="1" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="BN8" s="1" t="n">
-        <v>-3.035</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>4.531</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>4.162</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0.567000000000007</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>-0.567000000000007</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>42100141</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>44668</v>
-      </c>
-      <c r="C9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-605</v>
-      </c>
-      <c r="H9" t="n">
-        <v>223.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.941</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.941</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.684</v>
-      </c>
-      <c r="L9" t="n">
-        <v>218.917</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6.666</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.666</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="P9" t="n">
-        <v>225.541</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4.196</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5.335</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="T9" t="n">
-        <v>223.116</v>
-      </c>
-      <c r="U9" t="n">
-        <v>4.814</v>
-      </c>
-      <c r="V9" t="n">
-        <v>4.209</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>224.231</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7.962</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>226.062</v>
-      </c>
-      <c r="AC9" s="1" t="n">
-        <v>6.869</v>
-      </c>
-      <c r="AD9" s="1" t="n">
-        <v>7.912</v>
-      </c>
-      <c r="AE9" s="1" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>226.535</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>5.969</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>6.338</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.702</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>224.067</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>-4.559</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>-4.559</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>-0.174</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>-4.583</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>4.583</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>-3.834</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>-3.834</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>-0.121</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>2.041</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>-2.041</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>-6.304</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>-5.165</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>-0.223</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>-0.383999999999986</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0.383999999999986</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>-5.686</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>-6.291</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>-0.158</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0.730999999999995</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>-0.730999999999995</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>-3.172</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>-2.538</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>-0.099</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>2.56200000000001</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>-2.56200000000001</v>
-      </c>
-      <c r="BJ9" s="1" t="n">
-        <v>-3.631</v>
-      </c>
-      <c r="BK9" s="1" t="n">
-        <v>-2.588</v>
-      </c>
-      <c r="BL9" s="1" t="n">
-        <v>-0.164</v>
-      </c>
-      <c r="BM9" s="1" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="BN9" s="1" t="n">
-        <v>-3.035</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>-4.531</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>-4.162</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>-0.156</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>0.567000000000007</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>-0.567000000000007</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
     </row>
     <row r="10">
       <c r="B10" s="2"/>
